--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2003 (F03).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2003 (F03).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,455 +444,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bottle Gnomes</t>
+          <t>('Bottle Gnomes', ['{3}', 'Artifact Creature — Gnome', 'Sacrifice Bottle Gnomes: You gain 3 life.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}</t>
+          <t>('Capsize', ['{1}{U}{U}', 'Instant', 'Buyback {3} (You may pay an additional {3} as you cast this spell. If you do, put this card into your hand as it resolves.)', 'Return target permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artifact Creature — Gnome</t>
+          <t>('Crystalline Sliver', ['{W}{U}', 'Creature — Sliver', 'All Slivers have shroud. (They can’t be the targets of spells or abilities.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sacrifice Bottle Gnomes: You gain 3 life.</t>
+          <t>('Disenchant', ['{1}{W}', 'Instant', 'Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>('Goblin Bombardment', ['{1}{R}', 'Enchantment', 'Sacrifice a creature: Goblin Bombardment deals 1 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Capsize</t>
+          <t>('Krosan Tusker', ['{5}{G}{G}', 'Creature — Boar Beast', 'Cycling {2}{G} ({2}{G}, Discard this card: Draw a card.)', 'When you cycle Krosan Tusker, you may search your library for a basic land card, reveal that card, put it into your hand, then shuffle your library. (Do this before you draw.)', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{U}{U}</t>
+          <t>('Muscle Sliver', ['{1}{G}', 'Creature — Sliver', 'All Sliver creatures get +1/+1.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Priest of Titania', ['{1}{G}', 'Creature — Elf Druid', '{T}: Add {G} for each Elf on the battlefield.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Buyback {3} (You may pay an additional {3} as you cast this spell. If you do, put this card into your hand as it resolves.)</t>
+          <t>('Scragnoth', ['{4}{G}', 'Creature — Beast', 'This spell can’t be countered.', 'Protection from blue', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Return target permanent to its owner’s hand.</t>
+          <t>('Smother', ['{1}{B}', 'Instant', 'Destroy target creature with converted mana cost 3 or less. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Crystalline Sliver</t>
+          <t>('Sparksmith', ['{1}{R}', 'Creature — Goblin', '{T}: Sparksmith deals X damage to target creature and X damage to you, where X is the number of Goblins on the battlefield.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{W}{U}</t>
+          <t>('Whipcorder', ['{W}{W}', 'Creature — Human Soldier Rebel', '{W}, {T}: Tap target creature.', 'Morph {W} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>All Slivers have shroud. (They can’t be the targets of spells or abilities.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Disenchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Destroy target artifact or enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Goblin Bombardment</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sacrifice a creature: Goblin Bombardment deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Krosan Tusker</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{5}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Boar Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cycling {2}{G} ({2}{G}, Discard this card: Draw a card.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>When you cycle Krosan Tusker, you may search your library for a basic land card, reveal that card, put it into your hand, then shuffle your library. (Do this before you draw.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Muscle Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>All Sliver creatures get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Priest of Titania</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Elf Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{T}: Add {G} for each Elf on the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Scragnoth</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{4}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Protection from blue</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Smother</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Destroy target creature with converted mana cost 3 or less. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sparksmith</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{T}: Sparksmith deals X damage to target creature and X damage to you, where X is the number of Goblins on the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Whipcorder</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier Rebel</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{W}, {T}: Tap target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Morph {W} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Withered Wretch</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Zombie Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>{1}: Exile target card from a graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Withered Wretch', ['{B}{B}', 'Creature — Zombie Cleric', '{1}: Exile target card from a graveyard.', '2/2'])</t>
         </is>
       </c>
     </row>
